--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>48.7014996656</v>
+        <v>8.678224173999999</v>
       </c>
       <c r="R2">
-        <v>438.3134969904</v>
+        <v>78.104017566</v>
       </c>
       <c r="S2">
-        <v>0.1936545589678796</v>
+        <v>0.04538941146465603</v>
       </c>
       <c r="T2">
-        <v>0.1936545589678796</v>
+        <v>0.04538941146465601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
         <v>82.67842602219999</v>
@@ -632,10 +632,10 @@
         <v>744.1058341998</v>
       </c>
       <c r="S3">
-        <v>0.3287589548047719</v>
+        <v>0.4324300712598485</v>
       </c>
       <c r="T3">
-        <v>0.3287589548047719</v>
+        <v>0.4324300712598484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
         <v>35.56404544599999</v>
@@ -694,10 +694,10 @@
         <v>320.076409014</v>
       </c>
       <c r="S4">
-        <v>0.1414153482592538</v>
+        <v>0.1860093793074007</v>
       </c>
       <c r="T4">
-        <v>0.1414153482592538</v>
+        <v>0.1860093793074007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>24.66304118387467</v>
+        <v>4.394759949403333</v>
       </c>
       <c r="R5">
-        <v>221.967370654872</v>
+        <v>39.55283954463</v>
       </c>
       <c r="S5">
-        <v>0.09806906144706415</v>
+        <v>0.02298575879492587</v>
       </c>
       <c r="T5">
-        <v>0.09806906144706416</v>
+        <v>0.02298575879492586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>41.86937650800433</v>
@@ -818,10 +818,10 @@
         <v>376.824388572039</v>
       </c>
       <c r="S6">
-        <v>0.1664875968418043</v>
+        <v>0.2189879311696163</v>
       </c>
       <c r="T6">
-        <v>0.1664875968418043</v>
+        <v>0.2189879311696162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>18.01007204136333</v>
@@ -880,10 +880,10 @@
         <v>162.09064837227</v>
       </c>
       <c r="S7">
-        <v>0.07161447967922627</v>
+        <v>0.09419744800355258</v>
       </c>
       <c r="T7">
-        <v>0.07161447967922627</v>
+        <v>0.09419744800355255</v>
       </c>
     </row>
   </sheetData>
